--- a/other/Рейтинги.xlsx
+++ b/other/Рейтинги.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Knowledge_Base\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DE4AD1-DD82-4AE9-8409-20038B4A0DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512845D5-E2EC-4CB8-9E3A-4076D414DEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5481,15 +5481,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5503,6 +5494,15 @@
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5831,21 +5831,21 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
+      <c r="D1" s="263" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="257" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
+      <c r="J1" s="264" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="264"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="264"/>
       <c r="O1" s="4"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="4"/>
@@ -12555,10 +12555,10 @@
   <dimension ref="A1:W655"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="17" ySplit="2" topLeftCell="R240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="2" topLeftCell="R72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F256" sqref="F256"/>
+      <selection pane="bottomRight" activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12585,21 +12585,21 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
+      <c r="D1" s="265" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="257" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
+      <c r="J1" s="264" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="264"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="264"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -13035,7 +13035,7 @@
       <c r="C9" s="154" t="s">
         <v>910</v>
       </c>
-      <c r="D9" s="261">
+      <c r="D9" s="258">
         <v>11</v>
       </c>
       <c r="E9" s="4">
@@ -14029,7 +14029,7 @@
       <c r="A26" s="91" t="s">
         <v>630</v>
       </c>
-      <c r="B26" s="262" t="s">
+      <c r="B26" s="259" t="s">
         <v>1148</v>
       </c>
       <c r="C26" s="91">
@@ -15262,7 +15262,7 @@
       <c r="A47" s="200" t="s">
         <v>641</v>
       </c>
-      <c r="B47" s="264" t="s">
+      <c r="B47" s="261" t="s">
         <v>1150</v>
       </c>
       <c r="C47" s="200">
@@ -16667,33 +16667,33 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="50" t="s">
-        <v>542</v>
-      </c>
-      <c r="B71" s="50" t="s">
-        <v>805</v>
-      </c>
-      <c r="C71" s="50">
-        <v>2007</v>
-      </c>
-      <c r="D71" s="4">
+      <c r="A71" s="98" t="s">
+        <v>449</v>
+      </c>
+      <c r="B71" s="158" t="s">
+        <v>914</v>
+      </c>
+      <c r="C71" s="98" t="s">
+        <v>913</v>
+      </c>
+      <c r="D71" s="9">
         <v>8</v>
       </c>
       <c r="E71" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F71" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G71" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H71" s="4">
         <v>8</v>
       </c>
       <c r="I71" s="4">
         <f>SUM(D71:H71)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J71" s="4">
         <v>8</v>
@@ -16702,7 +16702,7 @@
         <v>9</v>
       </c>
       <c r="L71" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M71" s="4">
         <v>8</v>
@@ -16712,87 +16712,85 @@
       </c>
       <c r="O71" s="4">
         <f>SUM(J71:N71)</f>
-        <v>39</v>
-      </c>
-      <c r="P71" s="184">
+        <v>40</v>
+      </c>
+      <c r="P71" s="150">
         <f>SUM(I71+O71)</f>
         <v>79</v>
       </c>
       <c r="Q71" s="186">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R71" s="186">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="135" t="s">
-        <v>172</v>
-      </c>
-      <c r="B72" s="135" t="s">
-        <v>882</v>
-      </c>
-      <c r="C72" s="135">
-        <v>1987</v>
-      </c>
-      <c r="D72" s="4">
+      <c r="A72" s="242" t="s">
+        <v>614</v>
+      </c>
+      <c r="B72" s="243" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C72" s="242">
+        <v>1990</v>
+      </c>
+      <c r="D72" s="9">
         <v>7</v>
       </c>
       <c r="E72" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F72" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G72" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H72" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I72" s="4">
         <f>SUM(D72:H72)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J72" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K72" s="4">
         <v>7</v>
       </c>
       <c r="L72" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M72" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N72" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O72" s="4">
         <f>SUM(J72:N72)</f>
-        <v>39</v>
-      </c>
-      <c r="P72" s="184">
+        <v>41</v>
+      </c>
+      <c r="P72" s="150">
         <f>SUM(I72+O72)</f>
         <v>79</v>
       </c>
       <c r="Q72" s="186">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R72" s="186">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="68" t="s">
-        <v>633</v>
-      </c>
-      <c r="B73" s="68" t="s">
-        <v>717</v>
-      </c>
-      <c r="C73" s="68">
-        <v>2001</v>
+      <c r="A73" s="148" t="s">
+        <v>390</v>
+      </c>
+      <c r="B73" s="148"/>
+      <c r="C73" s="148">
+        <v>1979</v>
       </c>
       <c r="D73" s="4">
         <v>8</v>
@@ -16804,319 +16802,319 @@
         <v>8</v>
       </c>
       <c r="G73" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H73" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I73" s="4">
         <f>SUM(D73:H73)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J73" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K73" s="4">
         <v>9</v>
       </c>
       <c r="L73" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M73" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N73" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O73" s="4">
         <f>SUM(J73:N73)</f>
-        <v>45</v>
-      </c>
-      <c r="P73" s="184">
+        <v>40</v>
+      </c>
+      <c r="P73" s="150">
         <f>SUM(I73+O73)</f>
         <v>79</v>
       </c>
       <c r="Q73" s="186">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R73" s="186">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="B74" s="158" t="s">
-        <v>914</v>
-      </c>
-      <c r="C74" s="98" t="s">
-        <v>913</v>
+      <c r="A74" s="178" t="s">
+        <v>608</v>
+      </c>
+      <c r="B74" s="179" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C74" s="178">
+        <v>1956</v>
       </c>
       <c r="D74" s="9">
         <v>8</v>
       </c>
       <c r="E74" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F74" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G74" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H74" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I74" s="4">
         <f>SUM(D74:H74)</f>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J74" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K74" s="4">
         <v>9</v>
       </c>
       <c r="L74" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M74" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N74" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O74" s="4">
         <f>SUM(J74:N74)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P74" s="150">
         <f>SUM(I74+O74)</f>
         <v>79</v>
       </c>
       <c r="Q74" s="186">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R74" s="186">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="242" t="s">
-        <v>614</v>
-      </c>
-      <c r="B75" s="243" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C75" s="242">
-        <v>1990</v>
-      </c>
-      <c r="D75" s="9">
-        <v>7</v>
+      <c r="A75" s="50" t="s">
+        <v>542</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>805</v>
+      </c>
+      <c r="C75" s="50">
+        <v>2007</v>
+      </c>
+      <c r="D75" s="4">
+        <v>8</v>
       </c>
       <c r="E75" s="4">
         <v>7</v>
       </c>
       <c r="F75" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G75" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H75" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I75" s="4">
         <f>SUM(D75:H75)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J75" s="4">
         <v>7</v>
       </c>
       <c r="K75" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L75" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M75" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N75" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O75" s="4">
         <f>SUM(J75:N75)</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P75" s="150">
         <f>SUM(I75+O75)</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q75" s="186">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R75" s="186">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="148" t="s">
-        <v>390</v>
-      </c>
-      <c r="B76" s="148"/>
-      <c r="C76" s="148">
-        <v>1979</v>
+      <c r="A76" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" s="135" t="s">
+        <v>882</v>
+      </c>
+      <c r="C76" s="135">
+        <v>1987</v>
       </c>
       <c r="D76" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E76" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F76" s="4">
         <v>8</v>
       </c>
       <c r="G76" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H76" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I76" s="4">
         <f>SUM(D76:H76)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J76" s="4">
         <v>8</v>
       </c>
       <c r="K76" s="4">
+        <v>7</v>
+      </c>
+      <c r="L76" s="4">
+        <v>5</v>
+      </c>
+      <c r="M76" s="4">
         <v>9</v>
       </c>
-      <c r="L76" s="4">
-        <v>7</v>
-      </c>
-      <c r="M76" s="4">
-        <v>8</v>
-      </c>
       <c r="N76" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O76" s="4">
         <f>SUM(J76:N76)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P76" s="150">
         <f>SUM(I76+O76)</f>
+        <v>78</v>
+      </c>
+      <c r="Q76" s="186">
         <v>79</v>
       </c>
-      <c r="Q76" s="186">
-        <v>84</v>
-      </c>
       <c r="R76" s="186">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="178" t="s">
-        <v>608</v>
-      </c>
-      <c r="B77" s="179" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C77" s="178">
-        <v>1956</v>
-      </c>
-      <c r="D77" s="9">
-        <v>8</v>
+      <c r="A77" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="C77" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D77" s="4">
+        <v>6</v>
       </c>
       <c r="E77" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F77" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G77" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H77" s="4">
         <v>7</v>
       </c>
       <c r="I77" s="4">
         <f>SUM(D77:H77)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J77" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K77" s="4">
         <v>9</v>
       </c>
       <c r="L77" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M77" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N77" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O77" s="4">
         <f>SUM(J77:N77)</f>
-        <v>45</v>
-      </c>
-      <c r="P77" s="150">
+        <v>41</v>
+      </c>
+      <c r="P77" s="184">
         <f>SUM(I77+O77)</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q77" s="186">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R77" s="186">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="66" t="s">
-        <v>564</v>
-      </c>
-      <c r="B78" s="66" t="s">
-        <v>784</v>
-      </c>
-      <c r="C78" s="66">
-        <v>2018</v>
+      <c r="A78" s="148" t="s">
+        <v>662</v>
+      </c>
+      <c r="B78" s="148"/>
+      <c r="C78" s="148">
+        <v>1986</v>
       </c>
       <c r="D78" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E78" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F78" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G78" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H78" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I78" s="4">
         <f>SUM(D78:H78)</f>
         <v>39</v>
       </c>
       <c r="J78" s="4">
+        <v>8</v>
+      </c>
+      <c r="K78" s="4">
         <v>9</v>
       </c>
-      <c r="K78" s="4">
-        <v>5</v>
-      </c>
       <c r="L78" s="4">
         <v>7</v>
       </c>
       <c r="M78" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N78" s="4">
         <v>8</v>
@@ -17125,32 +17123,32 @@
         <f>SUM(J78:N78)</f>
         <v>39</v>
       </c>
-      <c r="P78" s="11">
+      <c r="P78" s="150">
         <f>SUM(I78+O78)</f>
         <v>78</v>
       </c>
       <c r="Q78" s="186">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="R78" s="186">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>723</v>
-      </c>
-      <c r="C79" s="16">
-        <v>2003</v>
+      <c r="A79" s="114" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" s="114" t="s">
+        <v>854</v>
+      </c>
+      <c r="C79" s="114" t="s">
+        <v>853</v>
       </c>
       <c r="D79" s="4">
         <v>8</v>
       </c>
       <c r="E79" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" s="4">
         <v>8</v>
@@ -17159,319 +17157,319 @@
         <v>8</v>
       </c>
       <c r="H79" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I79" s="4">
         <f>SUM(D79:H79)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J79" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K79" s="4">
         <v>8</v>
       </c>
       <c r="L79" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M79" s="4">
         <v>8</v>
       </c>
       <c r="N79" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O79" s="4">
         <f>SUM(J79:N79)</f>
-        <v>40</v>
-      </c>
-      <c r="P79" s="11">
+        <v>39</v>
+      </c>
+      <c r="P79" s="184">
         <f>SUM(I79+O79)</f>
         <v>78</v>
       </c>
       <c r="Q79" s="186">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="R79" s="186">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="C80" s="17">
-        <v>2000</v>
+      <c r="A80" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="C80" s="16">
+        <v>2003</v>
       </c>
       <c r="D80" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E80" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F80" s="4">
         <v>8</v>
       </c>
       <c r="G80" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H80" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I80" s="4">
         <f>SUM(D80:H80)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J80" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K80" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L80" s="4">
         <v>8</v>
       </c>
       <c r="M80" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N80" s="4">
         <v>8</v>
       </c>
       <c r="O80" s="4">
         <f>SUM(J80:N80)</f>
-        <v>41</v>
-      </c>
-      <c r="P80" s="184">
+        <v>38</v>
+      </c>
+      <c r="P80" s="150">
         <f>SUM(I80+O80)</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q80" s="186">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="R80" s="186">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="148" t="s">
-        <v>662</v>
-      </c>
-      <c r="B81" s="148"/>
-      <c r="C81" s="148">
+      <c r="A81" s="102" t="s">
+        <v>768</v>
+      </c>
+      <c r="B81" s="102" t="s">
+        <v>769</v>
+      </c>
+      <c r="C81" s="102">
         <v>1986</v>
       </c>
       <c r="D81" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E81" s="4">
         <v>8</v>
       </c>
       <c r="F81" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G81" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H81" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I81" s="4">
         <f>SUM(D81:H81)</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J81" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K81" s="4">
+        <v>8</v>
+      </c>
+      <c r="L81" s="4">
+        <v>6</v>
+      </c>
+      <c r="M81" s="4">
         <v>9</v>
-      </c>
-      <c r="L81" s="4">
-        <v>7</v>
-      </c>
-      <c r="M81" s="4">
-        <v>7</v>
       </c>
       <c r="N81" s="4">
         <v>8</v>
       </c>
       <c r="O81" s="4">
         <f>SUM(J81:N81)</f>
-        <v>39</v>
-      </c>
-      <c r="P81" s="150">
+        <v>40</v>
+      </c>
+      <c r="P81" s="11">
         <f>SUM(I81+O81)</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q81" s="186">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="R81" s="186">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="114" t="s">
-        <v>462</v>
-      </c>
-      <c r="B82" s="114" t="s">
-        <v>854</v>
-      </c>
-      <c r="C82" s="114" t="s">
-        <v>853</v>
+      <c r="A82" s="167" t="s">
+        <v>923</v>
+      </c>
+      <c r="B82" s="168" t="s">
+        <v>922</v>
+      </c>
+      <c r="C82" s="167">
+        <v>2008</v>
       </c>
       <c r="D82" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E82" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F82" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G82" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H82" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I82" s="4">
         <f>SUM(D82:H82)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J82" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K82" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L82" s="4">
         <v>7</v>
       </c>
       <c r="M82" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N82" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O82" s="4">
         <f>SUM(J82:N82)</f>
         <v>39</v>
       </c>
-      <c r="P82" s="184">
+      <c r="P82" s="150">
         <f>SUM(I82+O82)</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q82" s="186">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R82" s="186">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="102" t="s">
-        <v>768</v>
-      </c>
-      <c r="B83" s="102" t="s">
-        <v>769</v>
-      </c>
-      <c r="C83" s="102">
-        <v>1986</v>
+      <c r="A83" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="C83" s="16">
+        <v>2003</v>
       </c>
       <c r="D83" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E83" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F83" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G83" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H83" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I83" s="4">
         <f>SUM(D83:H83)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J83" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K83" s="4">
         <v>8</v>
       </c>
       <c r="L83" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M83" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N83" s="4">
         <v>8</v>
       </c>
       <c r="O83" s="4">
         <f>SUM(J83:N83)</f>
-        <v>40</v>
-      </c>
-      <c r="P83" s="11">
+        <v>38</v>
+      </c>
+      <c r="P83" s="150">
         <f>SUM(I83+O83)</f>
         <v>77</v>
       </c>
       <c r="Q83" s="186">
+        <v>77</v>
+      </c>
+      <c r="R83" s="186">
         <v>72</v>
       </c>
-      <c r="R83" s="186">
-        <v>66</v>
-      </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="167" t="s">
-        <v>923</v>
-      </c>
-      <c r="B84" s="168" t="s">
-        <v>922</v>
-      </c>
-      <c r="C84" s="167">
-        <v>2008</v>
-      </c>
-      <c r="D84" s="4">
-        <v>6</v>
+      <c r="A84" s="59" t="s">
+        <v>598</v>
+      </c>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59">
+        <v>2010</v>
+      </c>
+      <c r="D84" s="9">
+        <v>7</v>
       </c>
       <c r="E84" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F84" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G84" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H84" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I84" s="4">
         <f>SUM(D84:H84)</f>
         <v>38</v>
       </c>
       <c r="J84" s="4">
+        <v>7</v>
+      </c>
+      <c r="K84" s="4">
+        <v>8</v>
+      </c>
+      <c r="L84" s="4">
+        <v>7</v>
+      </c>
+      <c r="M84" s="4">
         <v>9</v>
       </c>
-      <c r="K84" s="4">
-        <v>7</v>
-      </c>
-      <c r="L84" s="4">
-        <v>7</v>
-      </c>
-      <c r="M84" s="4">
-        <v>10</v>
-      </c>
       <c r="N84" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O84" s="4">
         <f>SUM(J84:N84)</f>
@@ -17482,24 +17480,24 @@
         <v>77</v>
       </c>
       <c r="Q84" s="186">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R84" s="186">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="C85" s="16">
+      <c r="A85" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>804</v>
+      </c>
+      <c r="C85" s="53">
         <v>2003</v>
       </c>
       <c r="D85" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E85" s="4">
         <v>9</v>
@@ -17508,179 +17506,181 @@
         <v>8</v>
       </c>
       <c r="G85" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H85" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I85" s="4">
         <f>SUM(D85:H85)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J85" s="4">
         <v>8</v>
       </c>
       <c r="K85" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L85" s="4">
         <v>7</v>
       </c>
       <c r="M85" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N85" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O85" s="4">
         <f>SUM(J85:N85)</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P85" s="11">
         <f>SUM(I85+O85)</f>
         <v>77</v>
       </c>
       <c r="Q85" s="186">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R85" s="186">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="59" t="s">
-        <v>598</v>
-      </c>
-      <c r="B86" s="59"/>
-      <c r="C86" s="59">
-        <v>2010</v>
-      </c>
-      <c r="D86" s="9">
-        <v>7</v>
+      <c r="A86" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="B86" s="80" t="s">
+        <v>803</v>
+      </c>
+      <c r="C86" s="80">
+        <v>2014</v>
+      </c>
+      <c r="D86" s="4">
+        <v>6</v>
       </c>
       <c r="E86" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F86" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G86" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H86" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I86" s="4">
         <f>SUM(D86:H86)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J86" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K86" s="4">
         <v>8</v>
       </c>
       <c r="L86" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M86" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N86" s="4">
         <v>8</v>
       </c>
       <c r="O86" s="4">
         <f>SUM(J86:N86)</f>
-        <v>39</v>
-      </c>
-      <c r="P86" s="150">
+        <v>40</v>
+      </c>
+      <c r="P86" s="11">
         <f>SUM(I86+O86)</f>
         <v>77</v>
       </c>
       <c r="Q86" s="186">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R86" s="186">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="53" t="s">
-        <v>396</v>
-      </c>
-      <c r="B87" s="53" t="s">
-        <v>804</v>
-      </c>
-      <c r="C87" s="53">
-        <v>2003</v>
+      <c r="A87" s="41" t="s">
+        <v>596</v>
+      </c>
+      <c r="B87" s="41" t="s">
+        <v>743</v>
+      </c>
+      <c r="C87" s="41">
+        <v>2004</v>
       </c>
       <c r="D87" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E87" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F87" s="4">
         <v>8</v>
       </c>
       <c r="G87" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H87" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I87" s="4">
         <f>SUM(D87:H87)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J87" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K87" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L87" s="4">
         <v>7</v>
       </c>
       <c r="M87" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N87" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O87" s="4">
         <f>SUM(J87:N87)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P87" s="11">
         <f>SUM(I87+O87)</f>
         <v>77</v>
       </c>
       <c r="Q87" s="186">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R87" s="186">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="B88" s="80" t="s">
-        <v>803</v>
-      </c>
-      <c r="C88" s="80">
-        <v>2014</v>
+      <c r="A88" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="B88" s="42" t="s">
+        <v>744</v>
+      </c>
+      <c r="C88" s="42">
+        <v>2011</v>
       </c>
       <c r="D88" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E88" s="4">
         <v>8</v>
       </c>
       <c r="F88" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G88" s="4">
         <v>9</v>
@@ -17690,16 +17690,16 @@
       </c>
       <c r="I88" s="4">
         <f>SUM(D88:H88)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J88" s="4">
         <v>8</v>
       </c>
       <c r="K88" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L88" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M88" s="4">
         <v>8</v>
@@ -17709,31 +17709,29 @@
       </c>
       <c r="O88" s="4">
         <f>SUM(J88:N88)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P88" s="11">
         <f>SUM(I88+O88)</f>
         <v>77</v>
       </c>
       <c r="Q88" s="186">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R88" s="186">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="41" t="s">
-        <v>596</v>
-      </c>
-      <c r="B89" s="41" t="s">
-        <v>743</v>
-      </c>
-      <c r="C89" s="41">
-        <v>2004</v>
+      <c r="A89" s="148" t="s">
+        <v>391</v>
+      </c>
+      <c r="B89" s="148"/>
+      <c r="C89" s="148">
+        <v>1980</v>
       </c>
       <c r="D89" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E89" s="4">
         <v>8</v>
@@ -17742,17 +17740,17 @@
         <v>8</v>
       </c>
       <c r="G89" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H89" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I89" s="4">
         <f>SUM(D89:H89)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J89" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K89" s="4">
         <v>8</v>
@@ -17761,101 +17759,103 @@
         <v>7</v>
       </c>
       <c r="M89" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N89" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O89" s="4">
         <f>SUM(J89:N89)</f>
-        <v>38</v>
-      </c>
-      <c r="P89" s="11">
+        <v>39</v>
+      </c>
+      <c r="P89" s="150">
         <f>SUM(I89+O89)</f>
         <v>77</v>
       </c>
       <c r="Q89" s="186">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R89" s="186">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="42" t="s">
-        <v>587</v>
-      </c>
-      <c r="B90" s="42" t="s">
-        <v>744</v>
-      </c>
-      <c r="C90" s="42">
+      <c r="A90" s="132" t="s">
+        <v>560</v>
+      </c>
+      <c r="B90" s="132" t="s">
+        <v>947</v>
+      </c>
+      <c r="C90" s="132">
         <v>2011</v>
       </c>
       <c r="D90" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E90" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F90" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G90" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H90" s="4">
         <v>7</v>
       </c>
       <c r="I90" s="4">
         <f>SUM(D90:H90)</f>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J90" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K90" s="4">
         <v>7</v>
       </c>
       <c r="L90" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M90" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N90" s="4">
         <v>8</v>
       </c>
       <c r="O90" s="4">
         <f>SUM(J90:N90)</f>
-        <v>36</v>
-      </c>
-      <c r="P90" s="11">
+        <v>40</v>
+      </c>
+      <c r="P90" s="150">
         <f>SUM(I90+O90)</f>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q90" s="186">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="R90" s="186">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="148" t="s">
-        <v>391</v>
-      </c>
-      <c r="B91" s="148"/>
-      <c r="C91" s="148">
-        <v>1980</v>
+      <c r="A91" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="C91" s="21">
+        <v>2006</v>
       </c>
       <c r="D91" s="4">
         <v>8</v>
       </c>
       <c r="E91" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F91" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G91" s="4">
         <v>7</v>
@@ -17865,115 +17865,115 @@
       </c>
       <c r="I91" s="4">
         <f>SUM(D91:H91)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J91" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K91" s="4">
         <v>8</v>
       </c>
       <c r="L91" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M91" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N91" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O91" s="4">
         <f>SUM(J91:N91)</f>
-        <v>39</v>
-      </c>
-      <c r="P91" s="150">
+        <v>36</v>
+      </c>
+      <c r="P91" s="11">
         <f>SUM(I91+O91)</f>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q91" s="186">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="R91" s="186">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="132" t="s">
-        <v>560</v>
-      </c>
-      <c r="B92" s="132" t="s">
-        <v>947</v>
-      </c>
-      <c r="C92" s="132">
-        <v>2011</v>
+      <c r="A92" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="B92" s="47" t="s">
+        <v>754</v>
+      </c>
+      <c r="C92" s="47">
+        <v>2014</v>
       </c>
       <c r="D92" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E92" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" s="4">
         <v>7</v>
       </c>
       <c r="G92" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H92" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I92" s="4">
         <f>SUM(D92:H92)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J92" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K92" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L92" s="4">
         <v>7</v>
       </c>
       <c r="M92" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N92" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O92" s="4">
         <f>SUM(J92:N92)</f>
-        <v>40</v>
-      </c>
-      <c r="P92" s="150">
+        <v>37</v>
+      </c>
+      <c r="P92" s="11">
         <f>SUM(I92+O92)</f>
         <v>76</v>
       </c>
       <c r="Q92" s="186">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="R92" s="186">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>713</v>
-      </c>
-      <c r="C93" s="21">
-        <v>2006</v>
+      <c r="A93" s="181" t="s">
+        <v>954</v>
+      </c>
+      <c r="B93" s="182" t="s">
+        <v>953</v>
+      </c>
+      <c r="C93" s="181">
+        <v>2008</v>
       </c>
       <c r="D93" s="4">
         <v>8</v>
       </c>
       <c r="E93" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F93" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G93" s="4">
         <v>7</v>
@@ -17983,66 +17983,66 @@
       </c>
       <c r="I93" s="4">
         <f>SUM(D93:H93)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J93" s="4">
         <v>7</v>
       </c>
       <c r="K93" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L93" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M93" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N93" s="4">
         <v>8</v>
       </c>
       <c r="O93" s="4">
         <f>SUM(J93:N93)</f>
-        <v>36</v>
-      </c>
-      <c r="P93" s="11">
+        <v>40</v>
+      </c>
+      <c r="P93" s="150">
         <f>SUM(I93+O93)</f>
         <v>76</v>
       </c>
       <c r="Q93" s="186">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R93" s="186">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="47" t="s">
-        <v>531</v>
-      </c>
-      <c r="B94" s="47" t="s">
-        <v>754</v>
-      </c>
-      <c r="C94" s="47">
-        <v>2014</v>
+      <c r="A94" s="36" t="s">
+        <v>664</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>811</v>
+      </c>
+      <c r="C94" s="36">
+        <v>2010</v>
       </c>
       <c r="D94" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E94" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F94" s="4">
         <v>7</v>
       </c>
       <c r="G94" s="4">
+        <v>7</v>
+      </c>
+      <c r="H94" s="4">
         <v>9</v>
-      </c>
-      <c r="H94" s="4">
-        <v>10</v>
       </c>
       <c r="I94" s="4">
         <f>SUM(D94:H94)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J94" s="4">
         <v>7</v>
@@ -18051,128 +18051,128 @@
         <v>8</v>
       </c>
       <c r="L94" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M94" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N94" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O94" s="4">
         <f>SUM(J94:N94)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P94" s="11">
         <f>SUM(I94+O94)</f>
         <v>76</v>
       </c>
       <c r="Q94" s="186">
+        <v>79</v>
+      </c>
+      <c r="R94" s="186">
         <v>77</v>
       </c>
-      <c r="R94" s="186">
-        <v>80</v>
-      </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="181" t="s">
-        <v>954</v>
-      </c>
-      <c r="B95" s="182" t="s">
-        <v>953</v>
-      </c>
-      <c r="C95" s="181">
-        <v>2008</v>
+      <c r="A95" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" s="118" t="s">
+        <v>857</v>
+      </c>
+      <c r="C95" s="118">
+        <v>1982</v>
       </c>
       <c r="D95" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E95" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F95" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G95" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H95" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I95" s="4">
         <f>SUM(D95:H95)</f>
         <v>36</v>
       </c>
       <c r="J95" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K95" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L95" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M95" s="4">
         <v>9</v>
       </c>
       <c r="N95" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O95" s="4">
         <f>SUM(J95:N95)</f>
         <v>40</v>
       </c>
-      <c r="P95" s="150">
+      <c r="P95" s="184">
         <f>SUM(I95+O95)</f>
         <v>76</v>
       </c>
       <c r="Q95" s="186">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R95" s="186">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
-        <v>664</v>
+        <v>956</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>811</v>
+        <v>957</v>
       </c>
       <c r="C96" s="36">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D96" s="4">
+        <v>10</v>
+      </c>
+      <c r="E96" s="4">
+        <v>8</v>
+      </c>
+      <c r="F96" s="4">
+        <v>7</v>
+      </c>
+      <c r="G96" s="4">
         <v>9</v>
       </c>
-      <c r="E96" s="4">
-        <v>8</v>
-      </c>
-      <c r="F96" s="4">
-        <v>7</v>
-      </c>
-      <c r="G96" s="4">
-        <v>7</v>
-      </c>
       <c r="H96" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I96" s="4">
         <f>SUM(D96:H96)</f>
         <v>40</v>
       </c>
       <c r="J96" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K96" s="4">
         <v>8</v>
       </c>
       <c r="L96" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M96" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N96" s="4">
         <v>8</v>
@@ -18181,204 +18181,204 @@
         <f>SUM(J96:N96)</f>
         <v>36</v>
       </c>
-      <c r="P96" s="11">
+      <c r="P96" s="150">
         <f>SUM(I96+O96)</f>
         <v>76</v>
       </c>
       <c r="Q96" s="186">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R96" s="186">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="118" t="s">
-        <v>217</v>
-      </c>
-      <c r="B97" s="118" t="s">
-        <v>857</v>
-      </c>
-      <c r="C97" s="118">
-        <v>1982</v>
+      <c r="A97" s="60" t="s">
+        <v>674</v>
+      </c>
+      <c r="B97" s="60"/>
+      <c r="C97" s="60">
+        <v>2010</v>
       </c>
       <c r="D97" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E97" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" s="4">
         <v>8</v>
       </c>
       <c r="G97" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H97" s="4">
         <v>4</v>
       </c>
       <c r="I97" s="4">
         <f>SUM(D97:H97)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J97" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K97" s="4">
         <v>8</v>
       </c>
       <c r="L97" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M97" s="4">
         <v>9</v>
       </c>
       <c r="N97" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O97" s="4">
         <f>SUM(J97:N97)</f>
-        <v>40</v>
-      </c>
-      <c r="P97" s="184">
+        <v>41</v>
+      </c>
+      <c r="P97" s="11">
         <f>SUM(I97+O97)</f>
         <v>76</v>
       </c>
       <c r="Q97" s="186">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R97" s="186">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="36" t="s">
-        <v>956</v>
-      </c>
-      <c r="B98" s="36" t="s">
-        <v>957</v>
-      </c>
-      <c r="C98" s="36">
-        <v>2007</v>
+      <c r="A98" s="40" t="s">
+        <v>742</v>
+      </c>
+      <c r="B98" s="40" t="s">
+        <v>741</v>
+      </c>
+      <c r="C98" s="40">
+        <v>2006</v>
       </c>
       <c r="D98" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E98" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" s="4">
         <v>7</v>
       </c>
       <c r="G98" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H98" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I98" s="4">
         <f>SUM(D98:H98)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J98" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K98" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L98" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M98" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N98" s="4">
         <v>8</v>
       </c>
       <c r="O98" s="4">
         <f>SUM(J98:N98)</f>
-        <v>36</v>
-      </c>
-      <c r="P98" s="150">
+        <v>40</v>
+      </c>
+      <c r="P98" s="11">
         <f>SUM(I98+O98)</f>
         <v>76</v>
       </c>
       <c r="Q98" s="186">
+        <v>83</v>
+      </c>
+      <c r="R98" s="186">
         <v>80</v>
       </c>
-      <c r="R98" s="186">
-        <v>78</v>
-      </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="60" t="s">
-        <v>674</v>
-      </c>
-      <c r="B99" s="60"/>
-      <c r="C99" s="60">
-        <v>2010</v>
-      </c>
-      <c r="D99" s="4">
-        <v>7</v>
+      <c r="A99" s="157" t="s">
+        <v>342</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="C99" s="157">
+        <v>2019</v>
+      </c>
+      <c r="D99" s="9">
+        <v>6</v>
       </c>
       <c r="E99" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F99" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G99" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H99" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I99" s="4">
         <f>SUM(D99:H99)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J99" s="4">
         <v>7</v>
       </c>
       <c r="K99" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L99" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M99" s="4">
         <v>9</v>
       </c>
       <c r="N99" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O99" s="4">
         <f>SUM(J99:N99)</f>
-        <v>41</v>
-      </c>
-      <c r="P99" s="11">
+        <v>38</v>
+      </c>
+      <c r="P99" s="150">
         <f>SUM(I99+O99)</f>
         <v>76</v>
       </c>
       <c r="Q99" s="186">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R99" s="186">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="40" t="s">
-        <v>742</v>
-      </c>
-      <c r="B100" s="40" t="s">
-        <v>741</v>
-      </c>
-      <c r="C100" s="40">
-        <v>2006</v>
+      <c r="A100" s="68" t="s">
+        <v>633</v>
+      </c>
+      <c r="B100" s="68" t="s">
+        <v>717</v>
+      </c>
+      <c r="C100" s="68">
+        <v>2001</v>
       </c>
       <c r="D100" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E100" s="4">
         <v>7</v>
@@ -18387,57 +18387,57 @@
         <v>7</v>
       </c>
       <c r="G100" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H100" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I100" s="4">
         <f>SUM(D100:H100)</f>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J100" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K100" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L100" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M100" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N100" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O100" s="4">
         <f>SUM(J100:N100)</f>
-        <v>40</v>
-      </c>
-      <c r="P100" s="11">
+        <v>43</v>
+      </c>
+      <c r="P100" s="150">
         <f>SUM(I100+O100)</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q100" s="186">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R100" s="186">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="157" t="s">
-        <v>342</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>912</v>
-      </c>
-      <c r="C101" s="157">
-        <v>2019</v>
-      </c>
-      <c r="D101" s="9">
-        <v>6</v>
+      <c r="A101" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="C101" s="22">
+        <v>2007</v>
+      </c>
+      <c r="D101" s="4">
+        <v>8</v>
       </c>
       <c r="E101" s="4">
         <v>9</v>
@@ -18449,169 +18449,169 @@
         <v>7</v>
       </c>
       <c r="H101" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I101" s="4">
         <f>SUM(D101:H101)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J101" s="4">
         <v>7</v>
       </c>
       <c r="K101" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L101" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M101" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N101" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O101" s="4">
         <f>SUM(J101:N101)</f>
-        <v>38</v>
-      </c>
-      <c r="P101" s="150">
+        <v>36</v>
+      </c>
+      <c r="P101" s="11">
         <f>SUM(I101+O101)</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q101" s="186">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="R101" s="186">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>714</v>
-      </c>
-      <c r="C102" s="22">
+      <c r="A102" s="174" t="s">
+        <v>665</v>
+      </c>
+      <c r="B102" s="174" t="s">
+        <v>810</v>
+      </c>
+      <c r="C102" s="174">
         <v>2007</v>
       </c>
       <c r="D102" s="4">
         <v>8</v>
       </c>
       <c r="E102" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F102" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G102" s="4">
         <v>7</v>
       </c>
       <c r="H102" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I102" s="4">
         <f>SUM(D102:H102)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J102" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K102" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L102" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M102" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N102" s="4">
         <v>8</v>
       </c>
       <c r="O102" s="4">
         <f>SUM(J102:N102)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P102" s="11">
         <f>SUM(I102+O102)</f>
         <v>75</v>
       </c>
       <c r="Q102" s="186">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="R102" s="186">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="174" t="s">
-        <v>665</v>
-      </c>
-      <c r="B103" s="174" t="s">
-        <v>810</v>
-      </c>
-      <c r="C103" s="174">
-        <v>2007</v>
+      <c r="A103" s="105" t="s">
+        <v>650</v>
+      </c>
+      <c r="B103" s="105" t="s">
+        <v>843</v>
+      </c>
+      <c r="C103" s="105">
+        <v>1995</v>
       </c>
       <c r="D103" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E103" s="4">
         <v>8</v>
       </c>
       <c r="F103" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G103" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H103" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I103" s="4">
         <f>SUM(D103:H103)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J103" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K103" s="4">
         <v>7</v>
       </c>
       <c r="L103" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M103" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N103" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O103" s="4">
         <f>SUM(J103:N103)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P103" s="11">
         <f>SUM(I103+O103)</f>
         <v>75</v>
       </c>
       <c r="Q103" s="186">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R103" s="186">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="105" t="s">
-        <v>650</v>
-      </c>
-      <c r="B104" s="105" t="s">
-        <v>843</v>
-      </c>
-      <c r="C104" s="105">
-        <v>1995</v>
+      <c r="A104" s="58" t="s">
+        <v>607</v>
+      </c>
+      <c r="B104" s="58" t="s">
+        <v>758</v>
+      </c>
+      <c r="C104" s="58">
+        <v>2017</v>
       </c>
       <c r="D104" s="4">
         <v>7</v>
@@ -18623,92 +18623,92 @@
         <v>8</v>
       </c>
       <c r="G104" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H104" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I104" s="4">
         <f>SUM(D104:H104)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J104" s="4">
+        <v>8</v>
+      </c>
+      <c r="K104" s="4">
         <v>9</v>
       </c>
-      <c r="K104" s="4">
-        <v>7</v>
-      </c>
       <c r="L104" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M104" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N104" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O104" s="4">
         <f>SUM(J104:N104)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P104" s="11">
         <f>SUM(I104+O104)</f>
         <v>75</v>
       </c>
       <c r="Q104" s="186">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R104" s="186">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="58" t="s">
-        <v>607</v>
-      </c>
-      <c r="B105" s="58" t="s">
-        <v>758</v>
-      </c>
-      <c r="C105" s="58">
-        <v>2017</v>
+      <c r="A105" s="36" t="s">
+        <v>691</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>812</v>
+      </c>
+      <c r="C105" s="36">
+        <v>2011</v>
       </c>
       <c r="D105" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E105" s="4">
         <v>8</v>
       </c>
       <c r="F105" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G105" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H105" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I105" s="4">
         <f>SUM(D105:H105)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J105" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K105" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L105" s="4">
         <v>6</v>
       </c>
       <c r="M105" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N105" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O105" s="4">
         <f>SUM(J105:N105)</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P105" s="11">
         <f>SUM(I105+O105)</f>
@@ -18718,46 +18718,44 @@
         <v>82</v>
       </c>
       <c r="R105" s="186">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="36" t="s">
-        <v>691</v>
-      </c>
-      <c r="B106" s="36" t="s">
-        <v>812</v>
-      </c>
-      <c r="C106" s="36">
-        <v>2011</v>
+      <c r="A106" s="148" t="s">
+        <v>667</v>
+      </c>
+      <c r="B106" s="148"/>
+      <c r="C106" s="148">
+        <v>1980</v>
       </c>
       <c r="D106" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E106" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F106" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G106" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H106" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I106" s="4">
         <f>SUM(D106:H106)</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J106" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K106" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L106" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M106" s="4">
         <v>7</v>
@@ -18767,26 +18765,26 @@
       </c>
       <c r="O106" s="4">
         <f>SUM(J106:N106)</f>
-        <v>35</v>
-      </c>
-      <c r="P106" s="11">
+        <v>38</v>
+      </c>
+      <c r="P106" s="150">
         <f>SUM(I106+O106)</f>
         <v>75</v>
       </c>
       <c r="Q106" s="186">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R106" s="186">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="148" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="B107" s="148"/>
       <c r="C107" s="148">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="D107" s="4">
         <v>8</v>
@@ -18798,20 +18796,20 @@
         <v>8</v>
       </c>
       <c r="G107" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H107" s="4">
         <v>7</v>
       </c>
       <c r="I107" s="4">
         <f>SUM(D107:H107)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J107" s="4">
         <v>8</v>
       </c>
       <c r="K107" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L107" s="4">
         <v>7</v>
@@ -18824,7 +18822,7 @@
       </c>
       <c r="O107" s="4">
         <f>SUM(J107:N107)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P107" s="150">
         <f>SUM(I107+O107)</f>
@@ -18838,83 +18836,85 @@
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="148" t="s">
-        <v>684</v>
-      </c>
-      <c r="B108" s="148"/>
-      <c r="C108" s="148">
-        <v>1983</v>
-      </c>
-      <c r="D108" s="4">
-        <v>8</v>
+      <c r="A108" s="57" t="s">
+        <v>597</v>
+      </c>
+      <c r="B108" s="248" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C108" s="57">
+        <v>1997</v>
+      </c>
+      <c r="D108" s="9">
+        <v>10</v>
       </c>
       <c r="E108" s="4">
         <v>7</v>
       </c>
       <c r="F108" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G108" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H108" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I108" s="4">
         <f>SUM(D108:H108)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J108" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K108" s="4">
         <v>9</v>
       </c>
       <c r="L108" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M108" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N108" s="4">
         <v>8</v>
       </c>
       <c r="O108" s="4">
         <f>SUM(J108:N108)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P108" s="150">
         <f>SUM(I108+O108)</f>
         <v>75</v>
       </c>
       <c r="Q108" s="186">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R108" s="186">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="57" t="s">
-        <v>597</v>
-      </c>
-      <c r="B109" s="248" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C109" s="57">
-        <v>1997</v>
-      </c>
-      <c r="D109" s="9">
-        <v>10</v>
+      <c r="A109" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="B109" s="66" t="s">
+        <v>784</v>
+      </c>
+      <c r="C109" s="66">
+        <v>2018</v>
+      </c>
+      <c r="D109" s="4">
+        <v>5</v>
       </c>
       <c r="E109" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F109" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G109" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H109" s="4">
         <v>6</v>
@@ -18924,33 +18924,33 @@
         <v>37</v>
       </c>
       <c r="J109" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K109" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L109" s="4">
         <v>6</v>
       </c>
       <c r="M109" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N109" s="4">
         <v>8</v>
       </c>
       <c r="O109" s="4">
         <f>SUM(J109:N109)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P109" s="150">
         <f>SUM(I109+O109)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q109" s="186">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="R109" s="186">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -25015,13 +25015,13 @@
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A213" s="260" t="s">
+      <c r="A213" s="257" t="s">
         <v>1146</v>
       </c>
-      <c r="B213" s="260" t="s">
+      <c r="B213" s="257" t="s">
         <v>1147</v>
       </c>
-      <c r="C213" s="260">
+      <c r="C213" s="257">
         <v>1980</v>
       </c>
       <c r="D213" s="4">
@@ -26196,7 +26196,7 @@
       <c r="A233" s="38" t="s">
         <v>906</v>
       </c>
-      <c r="B233" s="263" t="s">
+      <c r="B233" s="260" t="s">
         <v>907</v>
       </c>
       <c r="C233" s="38">
@@ -26489,7 +26489,7 @@
       <c r="A238" s="170" t="s">
         <v>188</v>
       </c>
-      <c r="B238" s="265" t="s">
+      <c r="B238" s="262" t="s">
         <v>931</v>
       </c>
       <c r="C238" s="170">
@@ -39620,7 +39620,7 @@
       <c r="R643" s="186"/>
     </row>
     <row r="644" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A644" s="259" t="s">
+      <c r="A644" s="256" t="s">
         <v>1138</v>
       </c>
       <c r="B644" s="240"/>
@@ -40025,21 +40025,21 @@
       <c r="B1" s="204"/>
       <c r="C1" s="204"/>
       <c r="D1" s="204"/>
-      <c r="E1" s="256" t="s">
+      <c r="E1" s="263" t="s">
         <v>962</v>
       </c>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="257" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="257"/>
+      <c r="K1" s="264" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="264"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="264"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="4"/>
